--- a/项目资源管理.xlsx
+++ b/项目资源管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E244E8-232A-4AD3-9124-6018B8C6BB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2CFE2-9D3F-48B2-8551-5E74785E37AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41053E2F-150F-490B-A403-84AFB5A2ECC2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +676,7 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
